--- a/sccincc/public/sample.xlsx
+++ b/sccincc/public/sample.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>工单记录 ：2014-04-01 至 2014-04-01</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>工单记录 ：2014-04-14 至 2014-04-14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -28,6 +28,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>记录时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务座席</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>联系地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -52,91 +60,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>工单状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>回访内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务座席</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工单状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123123ceshi23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15528239099</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>--</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2014-04-01 17:21:58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2014-04-01 17:22:16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asdasd123123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2014-04-01 17:23:07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -144,7 +72,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -161,12 +89,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -207,16 +129,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -521,16 +440,16 @@
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1">
@@ -587,142 +506,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>

--- a/sccincc/public/sample.xlsx
+++ b/sccincc/public/sample.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>工单记录 ：2014-04-14 至 2014-04-14</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+  <si>
+    <t>工单记录 ：2014-07-01 至 2014-08-23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -65,6 +65,510 @@
   </si>
   <si>
     <t>回访内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7503</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-07-07 16:21:49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟庆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新村天池雅苑综合楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外管漏水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13568089200    8270489（物管）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁帅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:19分，物管告知已处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7521</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102339</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-07-08 10:17:59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新村天池雅苑11-3-3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水压小.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13309092821</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:52分无人接听/18:25分用户称现已恢复待观察，如有需要再致电我司。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7586</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-07-10 01:22:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁梦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天池雅苑8幢2单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13198328268（物管保安）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:25分通知袁帅。9月11日17:02分用户称师傅已去现场处理，但此处仍有漏水；17:06分致电袁帅告知此处系内管漏水。17:15分热线致电用户将情况告知用户，用户称若有需要再致电热线。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7967</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-07-20 10:20:48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天池雅苑10幢2单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15283581663，8270489（物管）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭叙军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:29分通知彭旭军/17:27分已处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-07-21 14:57:49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新村天池雅苑5幢1单元处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物管反映此处地面有清水溢出，要求检查。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13568080103     8270489</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹光鉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14：58分通知曹光鉴。18:43分未处理。21:33分曹光鉴告知此处初步检查不系外管漏水，系其它地方渗漏，需要物管再多观察几天，若一直有水溢出，再致电我司。21:34分热线已告知用户（物管）该情况，请用户多观察两日，若有需要再致电我司。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8144</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-07-24 09:17:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物管告知已观察两日（7月21日反映）此处还是有清水溢出。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13568080103   8270489（物管）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9：20分通知曹光鉴。15：26分用户来电告知师傅未与联系，再次通知曹光鉴。曹光鉴告知他已通知查漏组下午前去查漏。热线已告知物管。/18:29分已处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8358</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-07-28 17:12:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新村天池雅苑售楼部楼下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外管漏水，请速往</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8270489（物管）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:20分已通知曹光鉴。/18:47分物管告知已处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8364</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-07-28 18:56:16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴星洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新村天池雅苑小区九号楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外管爆，请速往</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13198328268（物管）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:09分通知曹光鉴。/17：27分无法接通。/18:50分已处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8555</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-08-01 20:29:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新村天池雅苑7幢2单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外管漏水严重，请速往</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8270489/13198328268（物管）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:30分，20:34分，曹光鉴电话正在通话中。20:44分已通知曹光鉴。/17:05分已处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8821</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-08-08 08:29:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李丽晖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新村天池雅苑8幢1单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关表前阀.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:30分通知曹光鉴。9日18:01分，物管告知已关。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8827</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-08-08 09:34:02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗中会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新村天池雅苑8幢1单元1楼2号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关表前阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:04分通知曹光鉴。9日18:01分，物管告知已关。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8861</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-08-08 14:31:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:32分通知曹光鉴/8月8日17:36分已处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8952</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102517</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-08-11 11:37:59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李诗洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新村天池雅苑综合楼3楼1号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户反映水表计量异常，要求检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18008100099</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水检所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦小轲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:45分已通知李庆达；12日15:46分用户告知师傅已前去处理，师傅告知用户是家中内漏导致计量问题，现用户已经自行处理，用户表示如有问题将再次致电热线。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8969</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-08-11 17:52:43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜庆林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西郊新村天池雅苑小区外面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014年8月11日15:16分接数字城管反映此处地面积水，经查看原因为地面裂缝冒水，有2天时间。处理截止日期为：2014年8月26日11:47分。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字城管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:58分通知曹光鉴。20:27分曹光鉴告知现场未检查到漏水点。20:27分李丽晖已在数字城管作“回退”处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9068</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-08-14 11:23:46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新村天池雅苑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物管反映他处一消防无水，要求检查。（提供不了户号）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13568080103（物管）   8270489（物管）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11：24分通知曹光鉴。17:50分座机用户告知 师傅已联系，师傅称过了水表后的管道不属我司管理范围，用户称若有需要再致电我司。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-08-18 00:19:22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新村天池雅苑6幢1单元（电梯门口）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表前管漏水严重(请速往）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13198328268</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:21分通知曹光鉴.17:08分已处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9248</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-08-18 14:12:43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西郊天池雅苑6幢1单元楼下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110mm的内管爆，要求维修（有偿）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:13分通知彭叙军。18:11分多次无法接通。8月2015:06分物管告知已处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9436</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-08-23 03:37:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新村天池雅苑11幢后面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外管漏水.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂雁兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：38分通知曹光鉴，曹光鉴称请热线帮忙转涂雁兵，3：41分通知涂雁兵，3:57分涂雁兵来电告知已通知曹光鉴；8月24日17：37分无人接听；17：58分用户告知已处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9472</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101339</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-08-23 17:48:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西郊街道天池村蔡家湾组85号（天池雅苑背后）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外管爆，请速往。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15309096453</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴旭东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:51分通知吴旭东；8月24日17：28分用户告知已处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -72,7 +576,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -89,6 +593,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -129,13 +639,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -506,6 +1019,728 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
